--- a/Forme de vie.xlsx
+++ b/Forme de vie.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1020\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1020\Desktop\Experience_Life_with_Significant_Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17658582-AC97-4ECA-A0B9-47C5A331A613}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3131C2CF-BA1E-4D47-A1A9-EDCA20597376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -868,7 +868,10 @@
                   <c:v>5.4311110999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.4111111100000002</c:v>
+                  <c:v>7.5222111100000006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0521666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,6 +1193,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.2518333333333333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.25383333333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1655,10 +1661,10 @@
                   <c:v>10.145588869999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.6629444433333331</c:v>
+                  <c:v>7.7740444433333336</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>1.306</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
@@ -2804,7 +2810,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="34" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -3811,8 +3817,8 @@
         <v>43</v>
       </c>
       <c r="B40" s="5">
-        <f>5.41111111</f>
-        <v>5.4111111100000002</v>
+        <f>5.41111111+2.1111</f>
+        <v>7.5222111100000006</v>
       </c>
       <c r="E40" s="5">
         <f>15.11/60</f>
@@ -3820,16 +3826,24 @@
       </c>
       <c r="I40" s="8">
         <f t="shared" si="0"/>
-        <v>5.6629444433333331</v>
+        <v>7.7740444433333336</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="B41" s="5">
+        <f>63.13/60</f>
+        <v>1.0521666666666667</v>
+      </c>
+      <c r="E41" s="5">
+        <f>15.23/60</f>
+        <v>0.25383333333333336</v>
+      </c>
       <c r="I41" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.306</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">

--- a/Forme de vie.xlsx
+++ b/Forme de vie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1020\Desktop\Experience_Life_with_Significant_Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3131C2CF-BA1E-4D47-A1A9-EDCA20597376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED307B0F-1FC2-4AA0-B98A-3717D7F7D12E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -871,7 +871,7 @@
                   <c:v>7.5222111100000006</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0521666666666667</c:v>
+                  <c:v>6.3721666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,6 +962,12 @@
                 <c:pt idx="34">
                   <c:v>1.1299999999999999</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1205000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1196,6 +1202,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.25383333333333336</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.2505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1664,10 +1673,10 @@
                   <c:v>7.7740444433333336</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.306</c:v>
+                  <c:v>8.7459999999999987</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>1.371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2810,7 +2819,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="34" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -3834,8 +3843,12 @@
         <v>44</v>
       </c>
       <c r="B41" s="5">
-        <f>63.13/60</f>
-        <v>1.0521666666666667</v>
+        <f>63.13/60+5.32</f>
+        <v>6.3721666666666668</v>
+      </c>
+      <c r="C41" s="5">
+        <f>2.12</f>
+        <v>2.12</v>
       </c>
       <c r="E41" s="5">
         <f>15.23/60</f>
@@ -3843,16 +3856,24 @@
       </c>
       <c r="I41" s="8">
         <f t="shared" si="0"/>
-        <v>1.306</v>
+        <v>8.7459999999999987</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="C42" s="5">
+        <f>67.23/60</f>
+        <v>1.1205000000000001</v>
+      </c>
+      <c r="E42" s="5">
+        <f>15.03/60</f>
+        <v>0.2505</v>
+      </c>
       <c r="I42" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.371</v>
       </c>
     </row>
   </sheetData>

--- a/Forme de vie.xlsx
+++ b/Forme de vie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1020\Desktop\Experience_Life_with_Significant_Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED307B0F-1FC2-4AA0-B98A-3717D7F7D12E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481B42CF-61D0-49B6-81D6-F3A6B87EA051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -966,7 +966,7 @@
                   <c:v>2.12</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1205000000000001</c:v>
+                  <c:v>1.7145000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1676,7 +1676,7 @@
                   <c:v>8.7459999999999987</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.371</c:v>
+                  <c:v>1.9650000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3864,8 +3864,8 @@
         <v>45</v>
       </c>
       <c r="C42" s="5">
-        <f>67.23/60</f>
-        <v>1.1205000000000001</v>
+        <f>67.23/60+35.64/60</f>
+        <v>1.7145000000000001</v>
       </c>
       <c r="E42" s="5">
         <f>15.03/60</f>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="I42" s="8">
         <f t="shared" si="0"/>
-        <v>1.371</v>
+        <v>1.9650000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Forme de vie.xlsx
+++ b/Forme de vie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1020\Desktop\Experience_Life_with_Significant_Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481B42CF-61D0-49B6-81D6-F3A6B87EA051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ADB573-1CCF-476B-A47E-4B4DE986BD51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Read to Learn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +205,91 @@
   </si>
   <si>
     <t>Aesthetics</t>
+  </si>
+  <si>
+    <t>Jl.5th</t>
+  </si>
+  <si>
+    <t>Jl.6th</t>
+  </si>
+  <si>
+    <t>Jl.7th</t>
+  </si>
+  <si>
+    <t>Jl.8th</t>
+  </si>
+  <si>
+    <t>Jl.9th</t>
+  </si>
+  <si>
+    <t>Jl.10th</t>
+  </si>
+  <si>
+    <t>Jl.11th</t>
+  </si>
+  <si>
+    <t>Jl.12th</t>
+  </si>
+  <si>
+    <t>Jl.13th</t>
+  </si>
+  <si>
+    <t>Jl.14th</t>
+  </si>
+  <si>
+    <t>Jl.15th</t>
+  </si>
+  <si>
+    <t>Jl.16th</t>
+  </si>
+  <si>
+    <t>Jl.17th</t>
+  </si>
+  <si>
+    <t>Jl.18th</t>
+  </si>
+  <si>
+    <t>Jl.19th</t>
+  </si>
+  <si>
+    <t>Jl.20th</t>
+  </si>
+  <si>
+    <t>Jl.24th</t>
+  </si>
+  <si>
+    <t>Jl.25th</t>
+  </si>
+  <si>
+    <t>Jl.21st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jl.22nd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jl.23rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jl.26th</t>
+  </si>
+  <si>
+    <t>Jl.27th</t>
+  </si>
+  <si>
+    <t>Jl.28th</t>
+  </si>
+  <si>
+    <t>Jl.29th</t>
+  </si>
+  <si>
+    <t>Jl.30th</t>
+  </si>
+  <si>
+    <t>Jl.31st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -755,10 +840,10 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$42</c:f>
+              <c:f>Sheet1!$B$2:$B$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>1.01</c:v>
                 </c:pt>
@@ -872,6 +957,12 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>6.3721666666666668</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -907,10 +998,10 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$42</c:f>
+              <c:f>Sheet1!$C$2:$C$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>2.31</c:v>
                 </c:pt>
@@ -1002,10 +1093,10 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$42</c:f>
+              <c:f>Sheet1!$D$2:$D$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>1.02</c:v>
                 </c:pt>
@@ -1082,10 +1173,10 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$42</c:f>
+              <c:f>Sheet1!$E$2:$E$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0.24</c:v>
                 </c:pt>
@@ -1205,6 +1296,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.2505</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.26033333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1240,10 +1334,10 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$42</c:f>
+              <c:f>Sheet1!$F$2:$F$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="1">
                   <c:v>1.0753333333333333</c:v>
                 </c:pt>
@@ -1346,10 +1440,10 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$42</c:f>
+              <c:f>Sheet1!$G$2:$G$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="1">
                   <c:v>0.39133333333333337</c:v>
                 </c:pt>
@@ -1462,10 +1556,10 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$42</c:f>
+              <c:f>Sheet1!$H$2:$H$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="9">
                   <c:v>0.97566666666666668</c:v>
                 </c:pt>
@@ -1551,10 +1645,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$42</c:f>
+              <c:f>Sheet1!$I$2:$I$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>4.58</c:v>
                 </c:pt>
@@ -1676,7 +1770,88 @@
                   <c:v>8.7459999999999987</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.9650000000000001</c:v>
+                  <c:v>8.3950000000000014</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.5303333333333333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1737,7 +1912,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Agency FB" panose="020B0503020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1810,7 +1985,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Agency FB" panose="020B0503020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1852,7 +2027,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Agency FB" panose="020B0503020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -2499,15 +2674,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>107203</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>56123</xdr:rowOff>
+      <xdr:colOff>410899</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>405694</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>52915</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>46782</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>25306</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2816,10 +2991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="34" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScale="23" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="AG45" sqref="AG45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -2876,7 +3051,7 @@
         <v>0.24</v>
       </c>
       <c r="I2" s="8">
-        <f t="shared" ref="I2:I42" si="0">SUM(B2:H2)</f>
+        <f t="shared" ref="I2:I65" si="0">SUM(B2:H2)</f>
         <v>4.58</v>
       </c>
     </row>
@@ -3863,6 +4038,10 @@
       <c r="A42" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="B42" s="5">
+        <f>6.43</f>
+        <v>6.43</v>
+      </c>
       <c r="C42" s="5">
         <f>67.23/60+35.64/60</f>
         <v>1.7145000000000001</v>
@@ -3873,7 +4052,258 @@
       </c>
       <c r="I42" s="8">
         <f t="shared" si="0"/>
-        <v>1.9650000000000001</v>
+        <v>8.3950000000000014</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="5">
+        <f>1.27</f>
+        <v>1.27</v>
+      </c>
+      <c r="E43" s="5">
+        <f>15.62/60</f>
+        <v>0.26033333333333331</v>
+      </c>
+      <c r="I43" s="8">
+        <f t="shared" si="0"/>
+        <v>1.5303333333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I44" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I46" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I47" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I48" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I51" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I52" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I53" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I54" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I55" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I56" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I57" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I58" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I59" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I60" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I62" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I63" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I64" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I65" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I66" s="8">
+        <f t="shared" ref="I66:I69" si="1">SUM(B66:H66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I67" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I68" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I69" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Forme de vie.xlsx
+++ b/Forme de vie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1020\Desktop\Experience_Life_with_Significant_Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ADB573-1CCF-476B-A47E-4B4DE986BD51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5351EEC6-51D1-4D1A-B78F-3B486B75966E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1059,6 +1059,9 @@
                 <c:pt idx="40">
                   <c:v>1.7145000000000001</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.57</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1773,7 +1776,7 @@
                   <c:v>8.3950000000000014</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.5303333333333333</c:v>
+                  <c:v>6.1003333333333334</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
@@ -2994,7 +2997,7 @@
   <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="23" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="AG45" sqref="AG45"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -4063,13 +4066,17 @@
         <f>1.27</f>
         <v>1.27</v>
       </c>
+      <c r="C43" s="5">
+        <f>4.57</f>
+        <v>4.57</v>
+      </c>
       <c r="E43" s="5">
         <f>15.62/60</f>
         <v>0.26033333333333331</v>
       </c>
       <c r="I43" s="8">
         <f t="shared" si="0"/>
-        <v>1.5303333333333333</v>
+        <v>6.1003333333333334</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">

--- a/Forme de vie.xlsx
+++ b/Forme de vie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1020\Desktop\Experience_Life_with_Significant_Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5351EEC6-51D1-4D1A-B78F-3B486B75966E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724954F8-089F-4DF9-AD69-6E1B3530935A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -964,6 +964,9 @@
                 <c:pt idx="41">
                   <c:v>1.27</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.1111110000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1062,6 +1065,9 @@
                 <c:pt idx="41">
                   <c:v>4.57</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.33</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1302,6 +1308,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.26033333333333331</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.18550000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1779,7 +1788,7 @@
                   <c:v>6.1003333333333334</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>4.6266110000000005</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0</c:v>
@@ -2997,7 +3006,7 @@
   <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="23" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -4083,9 +4092,21 @@
       <c r="A44" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="B44" s="5">
+        <f>2.111111</f>
+        <v>2.1111110000000002</v>
+      </c>
+      <c r="C44" s="5">
+        <f>2.33</f>
+        <v>2.33</v>
+      </c>
+      <c r="E44" s="5">
+        <f>11.13/60</f>
+        <v>0.18550000000000003</v>
+      </c>
       <c r="I44" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.6266110000000005</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">

--- a/Forme de vie.xlsx
+++ b/Forme de vie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1020\Desktop\Experience_Life_with_Significant_Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724954F8-089F-4DF9-AD69-6E1B3530935A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C1F510-0726-43AB-9FDB-B40DF8B84C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1416,6 +1416,9 @@
                 <c:pt idx="37">
                   <c:v>0.97777776999999999</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5018333333333334</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1788,7 +1791,7 @@
                   <c:v>6.1003333333333334</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.6266110000000005</c:v>
+                  <c:v>6.1284443333333343</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0</c:v>
@@ -3006,7 +3009,7 @@
   <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="23" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -4104,9 +4107,13 @@
         <f>11.13/60</f>
         <v>0.18550000000000003</v>
       </c>
+      <c r="F44" s="5">
+        <f>59/60+31.11/60</f>
+        <v>1.5018333333333334</v>
+      </c>
       <c r="I44" s="8">
         <f t="shared" si="0"/>
-        <v>4.6266110000000005</v>
+        <v>6.1284443333333343</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">

--- a/Forme de vie.xlsx
+++ b/Forme de vie.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1020\Desktop\Experience_Life_with_Significant_Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1020\Desktop\Experience-Life-with-Significant-Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C1F510-0726-43AB-9FDB-B40DF8B84C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E82C68D-4A8E-4E09-9E82-726AA3681F8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,6 +967,9 @@
                 <c:pt idx="42">
                   <c:v>2.1111110000000002</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1851666666666667</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1148,6 +1151,12 @@
                 <c:pt idx="37">
                   <c:v>1.46</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.222221666666667</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1311,6 +1320,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.18550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.23516666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1791,10 +1803,10 @@
                   <c:v>6.1003333333333334</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.1284443333333343</c:v>
+                  <c:v>7.5384443333333344</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>4.6425549999999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0</c:v>
@@ -3008,8 +3020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="23" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="23" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -4103,6 +4115,10 @@
         <f>2.33</f>
         <v>2.33</v>
       </c>
+      <c r="D44" s="5">
+        <f>1.41</f>
+        <v>1.41</v>
+      </c>
       <c r="E44" s="5">
         <f>11.13/60</f>
         <v>0.18550000000000003</v>
@@ -4113,16 +4129,28 @@
       </c>
       <c r="I44" s="8">
         <f t="shared" si="0"/>
-        <v>6.1284443333333343</v>
+        <v>7.5384443333333344</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="B45" s="5">
+        <f>71.11/60</f>
+        <v>1.1851666666666667</v>
+      </c>
+      <c r="D45" s="5">
+        <f>193.3333/60</f>
+        <v>3.222221666666667</v>
+      </c>
+      <c r="E45" s="5">
+        <f>14.11/60</f>
+        <v>0.23516666666666666</v>
+      </c>
       <c r="I45" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.6425549999999998</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
